--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
         <v>54.8</v>
       </c>
       <c r="F2" t="n">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,28 +509,28 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>hassan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>haidrabad</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Luxury</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -545,28 +545,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hassan</t>
+          <t>Salm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>haidrabad</t>
+          <t>khi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Luxury</t>
+          <t>Economy</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -581,28 +581,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salm</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>khi</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>Luxury</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -610,42 +610,6 @@
         </is>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ali</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Islamabad</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Luxury</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>65</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>Paid</t>
         </is>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,7 +498,7 @@
         <v>54.8</v>
       </c>
       <c r="F2" t="n">
-        <v>8.199999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -545,28 +545,28 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Salm</t>
+          <t>Ali</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>khi</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>Luxury</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -574,42 +574,6 @@
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ali</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Islamabad</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Luxury</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>65</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>Paid</t>
         </is>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>54.8</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
         <v>3.2</v>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,10 +474,57 @@
           <t>payment_status</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_name</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_phone</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -494,11 +541,15 @@
           <t>Economy</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>32</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.2</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -506,10 +557,25 @@
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -526,11 +592,15 @@
           <t>Luxury</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>60</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,12 +610,27 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>Paid</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Expired</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -562,11 +647,15 @@
           <t>Luxury</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>65</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.7</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.7</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -576,6 +665,19 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>Paid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Expired</t>
         </is>
       </c>
     </row>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -521,10 +521,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -541,22 +539,22 @@
           <t>Economy</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
+      <c r="E2" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -572,10 +570,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A3" t="n">
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -592,15 +588,11 @@
           <t>Luxury</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -627,10 +619,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A4" t="n">
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -647,15 +637,11 @@
           <t>Luxury</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
+      <c r="E4" t="n">
+        <v>65</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,14 +519,24 @@
           <t>status</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>medical_conditions</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adnan</t>
+          <t>Amna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -536,18 +546,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>Super</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F2" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -557,15 +567,29 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Expired</t>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>pregnant</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>u</t>
         </is>
       </c>
     </row>
@@ -575,28 +599,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hassan</t>
+          <t>nabeel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>haidrabad</t>
+          <t>kalam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Luxury</t>
+          <t>Economy</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -606,64 +630,29 @@
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Expired</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ali</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Islamabad</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Luxury</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>65</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Paid</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Expired</t>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>strong AF</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>u</t>
         </is>
       </c>
     </row>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F2" t="n">
         <v>5.4</v>
@@ -567,11 +567,7 @@
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
@@ -582,20 +578,14 @@
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>pregnant</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -604,7 +594,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>kalam</t>
+          <t>jhoopri</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -625,14 +615,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paid</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -647,7 +637,7 @@
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
-          <t>strong AF</t>
+          <t>strong</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,10 +582,8 @@
       <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -594,12 +592,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>jhoopri</t>
+          <t>kalam</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Economy</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -610,37 +608,88 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-03-03</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hassaan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1997-07-16</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>strong</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>u</t>
         </is>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
         <v>5.4</v>
@@ -695,6 +695,69 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hassaan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>52</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>u</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,153 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\GYM\GYM\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6430CC35-028D-4AA7-BD1E-3886F8A0C4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>join_date</t>
-  </si>
-  <si>
-    <t>payment_status</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>dob</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>next_of_kin_name</t>
-  </si>
-  <si>
-    <t>next_of_kin_phone</t>
-  </si>
-  <si>
-    <t>expiry_date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>medical_conditions</t>
-  </si>
-  <si>
-    <t>next_of_kin</t>
-  </si>
-  <si>
-    <t>Amna</t>
-  </si>
-  <si>
-    <t>Karachi</t>
-  </si>
-  <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>2025-03-13</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2025-03-17</t>
-  </si>
-  <si>
-    <t>Saboor Usman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malakand </t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Qasim Ali shah</t>
-  </si>
-  <si>
-    <t>+92 3452949573</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -486,166 +420,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="14" max="14" width="12.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>package</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>join_date</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>payment_status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_name</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_phone</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>medical_conditions</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>member_id</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2">
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>hassaan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Super</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>03452820444</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Saboor</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>3432928333</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Amna</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Malakand</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>economy</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>62</v>
       </c>
-      <c r="F2">
-        <v>5.4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>62</v>
-      </c>
-      <c r="F3">
-        <v>5.4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" t="s">
-        <v>34</v>
+      <c r="F3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-03-17</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>43546576890</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Saboor</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>3452820444</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>strong</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>member_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,238 +446,283 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>address</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_name</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_phone</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>package</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>join_date</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>expiry_date</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>payment_status</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>medical_conditions</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>height</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>join_date</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>payment_status</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>dob</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>next_of_kin_name</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>next_of_kin_phone</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>expiry_date</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>medical_conditions</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>member_id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hassaan</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>hyderabad</t>
-        </is>
+          <t>Saboor Usman</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3452949573</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Super</t>
+          <t>Malakand</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>Saboor</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3426050384</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>03452820444</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Paid</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Saboor</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3432928333</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1002</t>
-        </is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>70</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amna</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Malakand</t>
-        </is>
+          <t>qasim</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3426050384</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>economy</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>62</v>
-      </c>
-      <c r="F3" t="n">
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3432928333</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>70</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bisma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3452820444</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3432928333</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
         <v>5.9</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>43546576890</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Saboor</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>3452820444</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>strong</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1003</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,6 +725,146 @@
         <v>5.9</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hassaan</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3452820444</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hyderabad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-02-26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Saboor</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3432928333</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>hassaan</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3452820243</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kalam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-02-28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saboor</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3452949573</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Paid</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\New folder\gym_management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B463D5DD-AEDA-4AD5-915A-9455FEA8C0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E5731-5AEE-4BFE-825C-69DD28834991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>member_id</t>
   </si>
@@ -130,19 +130,34 @@
     <t>good</t>
   </si>
   <si>
-    <t>1004</t>
+    <t>1005</t>
   </si>
   <si>
     <t>hassaan</t>
   </si>
   <si>
-    <t>2025-02-26</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
     <t>Kalam</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>2025-02-25</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Strong</t>
   </si>
 </sst>
 </file>
@@ -507,18 +522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -720,13 +728,13 @@
         <v>37</v>
       </c>
       <c r="C5">
-        <v>3452820444</v>
+        <v>3452820243</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -735,7 +743,7 @@
         <v>21</v>
       </c>
       <c r="H5">
-        <v>3432928333</v>
+        <v>3452949573</v>
       </c>
       <c r="I5" t="s">
         <v>22</v>
@@ -756,7 +764,7 @@
         <v>70</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -764,16 +772,16 @@
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>3452820243</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -788,16 +796,16 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O6">
         <v>70</v>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\New folder\gym_management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473E5731-5AEE-4BFE-825C-69DD28834991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0CA20-240D-454A-BB8F-EDB0A381B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>member_id</t>
   </si>
@@ -68,96 +68,6 @@
   </si>
   <si>
     <t>height</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Saboor Usman</t>
-  </si>
-  <si>
-    <t>Malakand</t>
-  </si>
-  <si>
-    <t>2025-03-14</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Saboor</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>qasim</t>
-  </si>
-  <si>
-    <t>hyderabad</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>bisma</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>hassaan</t>
-  </si>
-  <si>
-    <t>Kalam</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>Abdullah</t>
-  </si>
-  <si>
-    <t>Karachi</t>
-  </si>
-  <si>
-    <t>2025-02-25</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Strong</t>
   </si>
 </sst>
 </file>
@@ -520,9 +430,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="A2:Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -579,241 +491,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>3452949573</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>3426050384</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2">
-        <v>70</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>3426050384</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>3432928333</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3">
-        <v>70</v>
-      </c>
-      <c r="P3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4">
-        <v>3452820444</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>3432928333</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4">
-        <v>70</v>
-      </c>
-      <c r="P4">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5">
-        <v>3452820243</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>3452949573</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5">
-        <v>70</v>
-      </c>
-      <c r="P5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>3452820243</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>3452949573</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6">
-        <v>70</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\New folder\gym_management\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0CA20-240D-454A-BB8F-EDB0A381B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>member_id</t>
   </si>
@@ -68,13 +62,46 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>Abdullah</t>
+  </si>
+  <si>
+    <t>Karachi</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Saboor</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>31-03-2025</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Strong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,7 +112,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,14 +164,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -429,19 +451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A2:Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +508,54 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>3452820243</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>3452949573</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2">
+        <v>70</v>
+      </c>
+      <c r="P2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>member_id</t>
   </si>
@@ -67,25 +67,43 @@
     <t>1001</t>
   </si>
   <si>
+    <t>1002</t>
+  </si>
+  <si>
     <t>Abdullah</t>
   </si>
   <si>
+    <t>Danish Javed</t>
+  </si>
+  <si>
     <t>Karachi</t>
   </si>
   <si>
+    <t>Mohalla Sheikh Banda, Ghourghushti, Tehsil Hazro, District Attock</t>
+  </si>
+  <si>
     <t>2025-02-23</t>
   </si>
   <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
     <t>Male</t>
   </si>
   <si>
     <t>Saboor</t>
   </si>
   <si>
+    <t>XYZ</t>
+  </si>
+  <si>
     <t>Gold</t>
   </si>
   <si>
-    <t>31-03-2025</t>
+    <t>31-02-2025</t>
+  </si>
+  <si>
+    <t>08-04-2025</t>
   </si>
   <si>
     <t>Active</t>
@@ -95,6 +113,9 @@
   </si>
   <si>
     <t>Strong</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -452,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,46 +534,93 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>3452820243</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>3452949573</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="O2">
         <v>70</v>
       </c>
       <c r="P2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>3089721908</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>3089721908</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>44.9</v>
+      </c>
+      <c r="P3">
+        <v>5.6</v>
       </c>
     </row>
   </sheetData>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\New folder\gym_management\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB0CA20-240D-454A-BB8F-EDB0A381B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>member_id</t>
   </si>
@@ -68,13 +62,64 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>bukhari</t>
+  </si>
+  <si>
+    <t>hassaan</t>
+  </si>
+  <si>
+    <t>03452820444</t>
+  </si>
+  <si>
+    <t>jhoopri</t>
+  </si>
+  <si>
+    <t>hyderabad</t>
+  </si>
+  <si>
+    <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Qasim</t>
+  </si>
+  <si>
+    <t>03432928333</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>09-04-2025</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,7 +130,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,14 +182,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -429,19 +469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A2:Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +526,101 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>3432928333</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
+        <v>3432928333</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2">
+        <v>60</v>
+      </c>
+      <c r="P2">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>member_id</t>
   </si>
@@ -62,72 +62,6 @@
   </si>
   <si>
     <t>height</t>
-  </si>
-  <si>
-    <t>hassaan</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>03452820444</t>
-  </si>
-  <si>
-    <t>hyderabad</t>
-  </si>
-  <si>
-    <t>2025-03-31</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Saboor</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Basic</t>
-  </si>
-  <si>
-    <t>09-04-2025</t>
-  </si>
-  <si>
-    <t>09-05-2025</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -485,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,147 +475,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
-        <v>1001</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>3452820444</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>3452820444</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2">
-        <v>70</v>
-      </c>
-      <c r="P2">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>3452820444</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/members.xlsx
+++ b/data/members.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>member_id</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>height</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
   </si>
   <si>
     <t>Abdullah</t>
@@ -530,44 +524,44 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2">
         <v>3452820243</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>3452949573</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
       </c>
       <c r="O2">
         <v>70</v>
@@ -577,44 +571,44 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3">
         <v>3089721908</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
       </c>
       <c r="H3">
         <v>3089721908</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
       </c>
       <c r="O3">
         <v>44.9</v>
